--- a/menu.xlsx
+++ b/menu.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27420"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7489C5BF-6729-4B7F-A3C3-38B4CCC67691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA3E360-D2AA-4AC6-B10F-B56A8A4DC58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -39,13 +39,43 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Beans</t>
-  </si>
-  <si>
-    <t>Water</t>
+    <t>Rice and Chicken</t>
+  </si>
+  <si>
+    <t>Chicken soup</t>
+  </si>
+  <si>
+    <t>Crispy corn</t>
+  </si>
+  <si>
+    <t>Shrimp</t>
+  </si>
+  <si>
+    <t>Chicken salad</t>
+  </si>
+  <si>
+    <t>Grilled Chicken and Potatoes</t>
+  </si>
+  <si>
+    <t>Chocolate cake</t>
+  </si>
+  <si>
+    <t>Fresh Juice</t>
+  </si>
+  <si>
+    <t>Ice cream</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Apple pie</t>
   </si>
 </sst>
 </file>
@@ -397,13 +427,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -426,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -435,6 +468,86 @@
       </c>
       <c r="B4">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
